--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_8.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232770.1615244462</v>
+        <v>222828.7510725867</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5117489.51767665</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22435683.45493321</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4042394.47710314</v>
+        <v>3915832.239858635</v>
       </c>
     </row>
     <row r="11">
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3348,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>27.413711578255</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>52.77779986093952</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9404,16 +9404,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9498,7 +9498,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,16 +9638,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
         <v>230.0982114216867</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9735,7 +9735,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9881,16 +9881,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,16 +10112,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -10203,13 +10203,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10589,16 +10589,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
@@ -10838,7 +10838,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
@@ -11072,10 +11072,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,19 +11142,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>392.7363850309042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24099,19 +24099,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>183.2066327192466</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24175,19 +24175,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>201.4502455527414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>326.8991488460811</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,10 +24342,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>229.1286306766888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>157.2656276977065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>326.8991488460811</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.1163432930735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>141.626529903997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0491205339815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>200.5294970799005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>229.1286306766888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>180.0624045826735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,16 +24892,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>263.7526768722601</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,13 +24923,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>359.3640175880309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2557545470806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24968,7 +24968,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24999,10 +24999,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0787279711701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25126,19 +25126,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>205.3792369440507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25163,13 +25163,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2557545470806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>326.8991488460811</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25236,13 +25236,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25284,7 +25284,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.4246268742279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25369,10 +25369,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>370.1581883937945</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,13 +25476,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>114.7771646789798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25530,7 +25530,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25594,16 +25594,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>263.7526768722601</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>326.6746162331822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25755,19 +25755,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>149.116818619607</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>139.6608200232087</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361518.9865887401</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361518.9865887401</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361518.9865887403</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>361518.9865887401</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361518.98658874</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361518.9865887402</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361518.9865887401</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361518.9865887403</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="16">
@@ -26326,34 +26326,34 @@
         <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="I2" t="n">
         <v>43002.96221257855</v>
       </c>
-      <c r="H2" t="n">
-        <v>45906.23721376774</v>
-      </c>
-      <c r="I2" t="n">
-        <v>45906.23721376774</v>
-      </c>
       <c r="J2" t="n">
-        <v>45906.23721376774</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="K2" t="n">
-        <v>45906.23721376773</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="L2" t="n">
-        <v>45906.23721376774</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="M2" t="n">
-        <v>45906.23721376774</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="N2" t="n">
-        <v>45906.23721376773</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="O2" t="n">
-        <v>45906.23721376773</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="P2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6912.585146932151</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="C4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="D4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="E4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="F4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="G4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="H4" t="n">
-        <v>4511.004316546619</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="I4" t="n">
-        <v>4511.00431654662</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="J4" t="n">
-        <v>4511.004316546619</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="K4" t="n">
-        <v>4511.00431654662</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="L4" t="n">
-        <v>4511.00431654662</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="M4" t="n">
-        <v>4511.004316546619</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="N4" t="n">
-        <v>4511.00431654662</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="O4" t="n">
-        <v>4511.004316546619</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="P4" t="n">
-        <v>4199.508028572124</v>
+        <v>5375.370276572321</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5175.854184006428</v>
+        <v>3999.991936006234</v>
       </c>
       <c r="C6" t="n">
-        <v>5175.854184006428</v>
+        <v>3999.991936006234</v>
       </c>
       <c r="D6" t="n">
-        <v>5175.854184006428</v>
+        <v>3999.991936006234</v>
       </c>
       <c r="E6" t="n">
-        <v>38803.45418400643</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="F6" t="n">
-        <v>38803.45418400643</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="G6" t="n">
-        <v>38803.45418400643</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="H6" t="n">
-        <v>32924.93404565541</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="I6" t="n">
-        <v>39837.51919258757</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="J6" t="n">
-        <v>39837.51919258757</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="K6" t="n">
-        <v>39837.51919258756</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L6" t="n">
-        <v>39837.51919258757</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="M6" t="n">
-        <v>39837.51919258757</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="N6" t="n">
-        <v>39837.51919258756</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O6" t="n">
-        <v>39837.51919258756</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="P6" t="n">
-        <v>38803.45418400643</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26326,31 +26328,31 @@
         <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
         <v>43002.96221257856</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="J2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="K2" t="n">
         <v>43002.96221257857</v>
       </c>
       <c r="L2" t="n">
+        <v>43002.96221257858</v>
+      </c>
+      <c r="M2" t="n">
         <v>43002.96221257856</v>
       </c>
-      <c r="M2" t="n">
-        <v>43002.96221257857</v>
-      </c>
       <c r="N2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257857</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="C4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="D4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="F4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="G4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="H4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="I4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="J4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="K4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="L4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="M4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="N4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="O4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
       <c r="P4" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.37027657232</v>
       </c>
     </row>
     <row r="5">
@@ -26534,31 +26536,31 @@
         <v>37627.59193600623</v>
       </c>
       <c r="G6" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="H6" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="I6" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J6" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K6" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="L6" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="M6" t="n">
         <v>37627.59193600624</v>
       </c>
-      <c r="M6" t="n">
-        <v>37627.59193600625</v>
-      </c>
       <c r="N6" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O6" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P6" t="n">
         <v>37627.59193600625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222828.7510725867</v>
+        <v>96546.43524854629</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5095395.866202923</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22726010.95505212</v>
+        <v>22414029.4671238</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3915832.239858635</v>
+        <v>4047356.038420535</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.9883504387977626</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="31">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="40">
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>10.61706312961831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>22.13378649092923</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
   </sheetData>
@@ -9169,16 +9169,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>237.6565638208974</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>232.315967292958</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3827976622762</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>139.8111730400443</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9254,13 +9254,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>144.5659785101298</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>135.8645562652404</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9327,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9403,16 +9403,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>237.7361490356726</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>232.315967292958</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3032124475011</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
@@ -9488,19 +9488,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>144.1037679877036</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>135.8645562652404</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9640,10 +9640,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
@@ -9652,10 +9652,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9731,13 +9731,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9883,16 +9883,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9971,7 +9971,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10038,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10117,16 +10117,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
@@ -10202,16 +10202,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10439,16 +10439,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10597,13 +10597,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O38" t="n">
         <v>230.0982114216867</v>
@@ -10913,16 +10913,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11068,16 +11068,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -11156,10 +11156,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11305,16 +11305,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11387,16 +11387,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>413.3330034494497</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>8.255757449489185</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>207.05033552056</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23791,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>325.7825244044496</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>224.2064403159192</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>230.83085308374</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8032511377922</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,22 +23940,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>222.0468639712869</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>284.3492952908056</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>284.5532642709057</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>223.9747136239815</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>379.9606360065765</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>404.9063116760261</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>413.3330034494497</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>221.3609077990757</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>171.720148549518</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>223.9716480152895</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>249.7252490952343</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24177,22 +24177,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>222.2816562719166</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>284.3492952908056</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>284.5532642709057</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>223.7399213233518</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>362.9115860908784</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24414,19 +24414,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>201.5678386764629</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>313.4416634353933</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24584,7 +24584,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>147.5195024732249</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>392.5654507069698</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="31">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>135.558522906408</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>145.5422199979494</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>135.558522906408</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25286,16 +25286,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25371,13 +25371,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>400.9921424803934</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="40">
@@ -25602,19 +25602,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25687,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>338.6239055877947</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>77.59148166841231</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,13 +25763,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2116889873065</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>144.680468614397</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>364.646527855934</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25961,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>149.8634099458648</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2656276977065</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9951818235815</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8136714519383</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>338648.3274240561</v>
+        <v>340406.6648340073</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>338648.3274240561</v>
+        <v>340406.6648340073</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>338648.3274240561</v>
+        <v>363207.2756115181</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>338648.3274240561</v>
+        <v>363207.275611518</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>338648.3274240561</v>
+        <v>363207.275611518</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>338648.3274240561</v>
+        <v>363207.2756115181</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>338648.3274240561</v>
+        <v>363207.275611518</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>338648.3274240561</v>
+        <v>363207.275611518</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338648.3274240561</v>
+        <v>361518.9865887401</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>338648.3274240561</v>
+        <v>361518.9865887401</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
-        <v>43002.96221257855</v>
+        <v>43226.17121627223</v>
       </c>
       <c r="H2" t="n">
-        <v>43002.96221257856</v>
+        <v>43226.17121627223</v>
       </c>
       <c r="I2" t="n">
-        <v>43002.96221257856</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="J2" t="n">
-        <v>43002.96221257857</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="K2" t="n">
-        <v>43002.96221257857</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="L2" t="n">
-        <v>43002.96221257858</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="M2" t="n">
-        <v>43002.96221257856</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="N2" t="n">
-        <v>43002.96221257856</v>
+        <v>46120.55404999527</v>
       </c>
       <c r="O2" t="n">
-        <v>43002.96221257856</v>
+        <v>45906.23721376774</v>
       </c>
       <c r="P2" t="n">
-        <v>43002.96221257857</v>
+        <v>45906.23721376774</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6812.973454767425</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>5375.37027657232</v>
       </c>
       <c r="G4" t="n">
-        <v>5375.37027657232</v>
+        <v>5405.545965776901</v>
       </c>
       <c r="H4" t="n">
-        <v>5375.37027657232</v>
+        <v>5405.545965776901</v>
       </c>
       <c r="I4" t="n">
-        <v>5375.37027657232</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="J4" t="n">
-        <v>5375.37027657232</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="K4" t="n">
-        <v>5375.37027657232</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="L4" t="n">
-        <v>5375.37027657232</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="M4" t="n">
-        <v>5375.37027657232</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="N4" t="n">
-        <v>5375.37027657232</v>
+        <v>5796.838410903221</v>
       </c>
       <c r="O4" t="n">
-        <v>5375.37027657232</v>
+        <v>5767.86485636782</v>
       </c>
       <c r="P4" t="n">
-        <v>5375.37027657232</v>
+        <v>5767.86485636782</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="E6" t="n">
-        <v>37627.59193600623</v>
+        <v>22476.91796597147</v>
       </c>
       <c r="F6" t="n">
-        <v>37627.59193600623</v>
+        <v>22476.91796597147</v>
       </c>
       <c r="G6" t="n">
-        <v>37627.59193600623</v>
+        <v>22038.21801333524</v>
       </c>
       <c r="H6" t="n">
-        <v>37627.59193600624</v>
+        <v>22578.09257472861</v>
       </c>
       <c r="I6" t="n">
-        <v>37627.59193600624</v>
+        <v>17072.29365813974</v>
       </c>
       <c r="J6" t="n">
-        <v>37627.59193600625</v>
+        <v>23885.26711290717</v>
       </c>
       <c r="K6" t="n">
-        <v>37627.59193600625</v>
+        <v>23885.26711290716</v>
       </c>
       <c r="L6" t="n">
-        <v>37627.59193600625</v>
+        <v>23885.26711290716</v>
       </c>
       <c r="M6" t="n">
-        <v>37627.59193600624</v>
+        <v>23885.26711290717</v>
       </c>
       <c r="N6" t="n">
-        <v>37627.59193600624</v>
+        <v>23885.26711290715</v>
       </c>
       <c r="O6" t="n">
-        <v>37627.59193600624</v>
+        <v>23792.89405788025</v>
       </c>
       <c r="P6" t="n">
-        <v>37627.59193600625</v>
+        <v>23792.89405788025</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
